--- a/JS-S03.xlsx
+++ b/JS-S03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-Wed\Desktop\JavaScript-S03-67\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-Wed\Desktop\NODEREST-267WED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FECF658-9343-46B6-9268-6DACB5C4A871}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A848D6BE-7BB6-4690-957D-CC4CBD8F2BA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,6 +720,18 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -732,19 +744,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,130 +1089,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1228,24 +1228,24 @@
       <c r="D7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1511,7 +1511,7 @@
         <v>88</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1727,7 +1727,7 @@
         <v>88</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1871,7 +1871,7 @@
         <v>90</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -2015,7 +2015,7 @@
         <v>88</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -2534,50 +2534,50 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="19" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
     </row>
     <row r="44" spans="1:20" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-S03.xlsx
+++ b/JS-S03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-Wed\Desktop\NODEREST-267WED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHWED\Desktop\NODEREST-267WED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A848D6BE-7BB6-4690-957D-CC4CBD8F2BA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73E40AC-6817-47E2-9DB4-7AF444E0EBE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>JOYSILIN</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -746,6 +749,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1339,9 @@
       <c r="I9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1369,7 +1377,9 @@
       <c r="I10" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1405,7 +1415,9 @@
       <c r="I11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1441,7 +1453,9 @@
       <c r="I12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1477,7 +1491,9 @@
       <c r="I13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1513,7 +1529,9 @@
       <c r="I14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -1549,7 +1567,9 @@
       <c r="I15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -1585,7 +1605,9 @@
       <c r="I16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -1621,7 +1643,9 @@
       <c r="I17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -1657,7 +1681,9 @@
       <c r="I18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -1693,7 +1719,9 @@
       <c r="I19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -1729,7 +1757,9 @@
       <c r="I20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -1765,7 +1795,9 @@
       <c r="I21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -1801,7 +1833,9 @@
       <c r="I22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -1837,7 +1871,9 @@
       <c r="I23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -1873,7 +1909,9 @@
       <c r="I24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -1909,7 +1947,9 @@
       <c r="I25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -1945,7 +1985,9 @@
       <c r="I26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -1981,7 +2023,9 @@
       <c r="I27" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -2017,7 +2061,9 @@
       <c r="I28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -2053,7 +2099,9 @@
       <c r="I29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -2089,7 +2137,9 @@
       <c r="I30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -2125,7 +2175,9 @@
       <c r="I31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -2161,7 +2213,9 @@
       <c r="I32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -2197,7 +2251,9 @@
       <c r="I33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -2233,7 +2289,9 @@
       <c r="I34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -2269,7 +2327,9 @@
       <c r="I35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -2305,7 +2365,9 @@
       <c r="I36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -2341,7 +2403,9 @@
       <c r="I37" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -2377,7 +2441,9 @@
       <c r="I38" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -2413,7 +2479,9 @@
       <c r="I39" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -2449,7 +2517,9 @@
       <c r="I40" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="7"/>
+      <c r="J40" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -2485,7 +2555,9 @@
       <c r="I41" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -2521,7 +2593,9 @@
       <c r="I42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -2564,6 +2638,14 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/JS-S03.xlsx
+++ b/JS-S03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHWED\Desktop\NODEREST-267WED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73E40AC-6817-47E2-9DB4-7AF444E0EBE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0AA81D-46DC-4EAE-A4CB-0C9B82058BB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -723,16 +723,7 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,11 +738,20 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,130 +1095,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="19" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="14" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,24 +1234,24 @@
       <c r="D7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1342,7 +1342,9 @@
       <c r="J9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -1380,7 +1382,9 @@
       <c r="J10" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1418,7 +1422,9 @@
       <c r="J11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1454,9 +1460,11 @@
         <v>88</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1494,7 +1502,9 @@
       <c r="J13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1532,7 +1542,9 @@
       <c r="J14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1570,7 +1582,9 @@
       <c r="J15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1608,7 +1622,9 @@
       <c r="J16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1646,7 +1662,9 @@
       <c r="J17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1684,7 +1702,9 @@
       <c r="J18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1722,7 +1742,9 @@
       <c r="J19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -1760,7 +1782,9 @@
       <c r="J20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -1798,7 +1822,9 @@
       <c r="J21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -1836,7 +1862,9 @@
       <c r="J22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -1874,7 +1902,9 @@
       <c r="J23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -1912,7 +1942,9 @@
       <c r="J24" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -1950,7 +1982,9 @@
       <c r="J25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="7"/>
+      <c r="K25" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -1988,7 +2022,9 @@
       <c r="J26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -2026,7 +2062,9 @@
       <c r="J27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -2064,7 +2102,9 @@
       <c r="J28" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -2102,7 +2142,9 @@
       <c r="J29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -2140,7 +2182,9 @@
       <c r="J30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K30" s="7"/>
+      <c r="K30" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -2178,7 +2222,9 @@
       <c r="J31" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="7"/>
+      <c r="K31" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -2216,7 +2262,9 @@
       <c r="J32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K32" s="7"/>
+      <c r="K32" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -2254,7 +2302,9 @@
       <c r="J33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K33" s="7"/>
+      <c r="K33" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -2292,7 +2342,9 @@
       <c r="J34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -2330,7 +2382,9 @@
       <c r="J35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -2368,7 +2422,9 @@
       <c r="J36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K36" s="7"/>
+      <c r="K36" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -2406,7 +2462,9 @@
       <c r="J37" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K37" s="7"/>
+      <c r="K37" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -2444,7 +2502,9 @@
       <c r="J38" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K38" s="7"/>
+      <c r="K38" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -2482,7 +2542,9 @@
       <c r="J39" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K39" s="7"/>
+      <c r="K39" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -2520,7 +2582,9 @@
       <c r="J40" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="7"/>
+      <c r="K40" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -2558,7 +2622,9 @@
       <c r="J41" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K41" s="7"/>
+      <c r="K41" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -2596,7 +2662,9 @@
       <c r="J42" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K42" s="7"/>
+      <c r="K42" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -2608,58 +2676,61 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="13" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
     </row>
     <row r="44" spans="1:20" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="11" t="s">
         <v>91</v>
       </c>
       <c r="J45" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K45" s="10" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-S03.xlsx
+++ b/JS-S03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHWED\Desktop\NODEREST-267WED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0AA81D-46DC-4EAE-A4CB-0C9B82058BB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAAB943-75FA-4DF5-B079-D87EA768EB65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -726,6 +726,18 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -738,19 +750,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,130 +1095,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,24 +1234,24 @@
       <c r="D7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1346,7 +1346,9 @@
         <v>88</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1386,7 +1388,9 @@
         <v>88</v>
       </c>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1426,7 +1430,9 @@
         <v>88</v>
       </c>
       <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="M11" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1466,7 +1472,9 @@
         <v>88</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1506,7 +1514,9 @@
         <v>88</v>
       </c>
       <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1546,7 +1556,9 @@
         <v>88</v>
       </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1586,7 +1598,9 @@
         <v>89</v>
       </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1626,7 +1640,9 @@
         <v>88</v>
       </c>
       <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1666,7 +1682,9 @@
         <v>88</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1706,7 +1724,9 @@
         <v>88</v>
       </c>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -1746,7 +1766,9 @@
         <v>88</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="M19" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -1786,7 +1808,9 @@
         <v>88</v>
       </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -1826,7 +1850,9 @@
         <v>88</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -1866,7 +1892,9 @@
         <v>88</v>
       </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="M22" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -1906,7 +1934,9 @@
         <v>88</v>
       </c>
       <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="M23" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -1946,7 +1976,9 @@
         <v>88</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="M24" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -1986,7 +2018,9 @@
         <v>88</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2026,7 +2060,9 @@
         <v>88</v>
       </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -2066,7 +2102,9 @@
         <v>89</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="M27" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -2106,7 +2144,9 @@
         <v>88</v>
       </c>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -2146,7 +2186,9 @@
         <v>88</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="M29" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -2186,7 +2228,9 @@
         <v>89</v>
       </c>
       <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="M30" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -2226,7 +2270,9 @@
         <v>89</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="M31" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -2266,7 +2312,9 @@
         <v>88</v>
       </c>
       <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="M32" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -2306,7 +2354,9 @@
         <v>88</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
+      <c r="M33" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -2346,7 +2396,9 @@
         <v>88</v>
       </c>
       <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="M34" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -2386,7 +2438,9 @@
         <v>88</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+      <c r="M35" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -2426,7 +2480,9 @@
         <v>88</v>
       </c>
       <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="M36" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
@@ -2466,7 +2522,9 @@
         <v>88</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="M37" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
@@ -2506,7 +2564,9 @@
         <v>88</v>
       </c>
       <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="M38" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -2546,7 +2606,9 @@
         <v>89</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="M39" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
@@ -2586,7 +2648,9 @@
         <v>88</v>
       </c>
       <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+      <c r="M40" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
@@ -2626,7 +2690,9 @@
         <v>88</v>
       </c>
       <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
+      <c r="M41" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -2666,7 +2732,9 @@
         <v>89</v>
       </c>
       <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
+      <c r="M42" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -2676,36 +2744,36 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="20" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
     </row>
     <row r="44" spans="1:20" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
@@ -2717,20 +2785,23 @@
       <c r="K45" s="10" t="s">
         <v>88</v>
       </c>
+      <c r="M45" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-S03.xlsx
+++ b/JS-S03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHWED\Desktop\NODEREST-267WED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAAB943-75FA-4DF5-B079-D87EA768EB65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0AB477-620B-47D3-AB6D-4D2C050D84AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,18 +726,6 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -750,7 +738,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,130 +1095,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,24 +1234,24 @@
       <c r="D7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2744,36 +2744,36 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="14" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
     </row>
     <row r="44" spans="1:20" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
@@ -2791,17 +2791,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/JS-S03.xlsx
+++ b/JS-S03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHWED\Desktop\NODEREST-267WED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0AB477-620B-47D3-AB6D-4D2C050D84AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EBD4AF-CC6B-4747-B8A6-95823174685C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -691,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -724,6 +724,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,7 +1073,7 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,130 +1098,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,24 +1237,24 @@
       <c r="D7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1349,7 +1352,9 @@
       <c r="M9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1391,7 +1396,9 @@
       <c r="M10" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -1433,7 +1440,9 @@
       <c r="M11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1475,7 +1484,9 @@
       <c r="M12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1517,7 +1528,9 @@
       <c r="M13" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1559,7 +1572,9 @@
       <c r="M14" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -1601,7 +1616,9 @@
       <c r="M15" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -1643,7 +1660,9 @@
       <c r="M16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -1685,7 +1704,9 @@
       <c r="M17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1727,7 +1748,9 @@
       <c r="M18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -1769,7 +1792,9 @@
       <c r="M19" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -1811,7 +1836,9 @@
       <c r="M20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -1853,7 +1880,9 @@
       <c r="M21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -1895,7 +1924,9 @@
       <c r="M22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -1937,7 +1968,9 @@
       <c r="M23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -1979,7 +2012,9 @@
       <c r="M24" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -2021,7 +2056,9 @@
       <c r="M25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N25" s="7"/>
+      <c r="N25" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -2063,7 +2100,9 @@
       <c r="M26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N26" s="7"/>
+      <c r="N26" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -2105,7 +2144,9 @@
       <c r="M27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N27" s="7"/>
+      <c r="N27" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -2147,7 +2188,9 @@
       <c r="M28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -2189,7 +2232,9 @@
       <c r="M29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N29" s="7"/>
+      <c r="N29" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -2231,7 +2276,9 @@
       <c r="M30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -2273,7 +2320,9 @@
       <c r="M31" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N31" s="7"/>
+      <c r="N31" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -2315,7 +2364,9 @@
       <c r="M32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N32" s="7"/>
+      <c r="N32" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -2357,7 +2408,9 @@
       <c r="M33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N33" s="7"/>
+      <c r="N33" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -2399,7 +2452,9 @@
       <c r="M34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N34" s="7"/>
+      <c r="N34" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -2441,7 +2496,9 @@
       <c r="M35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N35" s="7"/>
+      <c r="N35" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -2483,7 +2540,9 @@
       <c r="M36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N36" s="7"/>
+      <c r="N36" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -2525,7 +2584,9 @@
       <c r="M37" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N37" s="7"/>
+      <c r="N37" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -2567,7 +2628,9 @@
       <c r="M38" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N38" s="7"/>
+      <c r="N38" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -2609,7 +2672,9 @@
       <c r="M39" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N39" s="7"/>
+      <c r="N39" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -2651,7 +2716,9 @@
       <c r="M40" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N40" s="7"/>
+      <c r="N40" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -2693,7 +2760,9 @@
       <c r="M41" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N41" s="7"/>
+      <c r="N41" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -2735,8 +2804,10 @@
       <c r="M42" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
+      <c r="N42" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O42" s="10"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
@@ -2744,36 +2815,36 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="20" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
     </row>
     <row r="44" spans="1:20" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
@@ -2787,6 +2858,9 @@
       </c>
       <c r="M45" s="10" t="s">
         <v>88</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/JS-S03.xlsx
+++ b/JS-S03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACHWED\Desktop\NODEREST-267WED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EBD4AF-CC6B-4747-B8A6-95823174685C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C4C79-3240-4818-8505-53FB74AB81F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -729,6 +729,18 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -741,19 +753,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,130 +1098,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,24 +1237,24 @@
       <c r="D7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1355,7 +1355,9 @@
       <c r="N9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="7"/>
+      <c r="O9" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -1399,7 +1401,9 @@
       <c r="N10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -1443,7 +1447,9 @@
       <c r="N11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="7"/>
+      <c r="O11" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -1485,9 +1491,11 @@
         <v>88</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O12" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -1529,9 +1537,11 @@
         <v>88</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -1573,9 +1583,11 @@
         <v>88</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O14" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -1619,7 +1631,9 @@
       <c r="N15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O15" s="7"/>
+      <c r="O15" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1663,7 +1677,9 @@
       <c r="N16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O16" s="7"/>
+      <c r="O16" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -1707,7 +1723,9 @@
       <c r="N17" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O17" s="7"/>
+      <c r="O17" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -1751,7 +1769,9 @@
       <c r="N18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O18" s="7"/>
+      <c r="O18" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -1795,7 +1815,9 @@
       <c r="N19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O19" s="7"/>
+      <c r="O19" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -1839,7 +1861,9 @@
       <c r="N20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O20" s="7"/>
+      <c r="O20" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -1883,7 +1907,9 @@
       <c r="N21" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O21" s="7"/>
+      <c r="O21" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -1927,7 +1953,9 @@
       <c r="N22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O22" s="7"/>
+      <c r="O22" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -1971,7 +1999,9 @@
       <c r="N23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O23" s="7"/>
+      <c r="O23" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -2015,7 +2045,9 @@
       <c r="N24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O24" s="7"/>
+      <c r="O24" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -2059,7 +2091,9 @@
       <c r="N25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O25" s="7"/>
+      <c r="O25" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -2103,7 +2137,9 @@
       <c r="N26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O26" s="7"/>
+      <c r="O26" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -2147,7 +2183,9 @@
       <c r="N27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="7"/>
+      <c r="O27" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -2191,7 +2229,9 @@
       <c r="N28" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O28" s="7"/>
+      <c r="O28" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -2235,7 +2275,9 @@
       <c r="N29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O29" s="7"/>
+      <c r="O29" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -2279,7 +2321,9 @@
       <c r="N30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O30" s="7"/>
+      <c r="O30" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -2323,7 +2367,9 @@
       <c r="N31" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O31" s="7"/>
+      <c r="O31" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -2367,7 +2413,9 @@
       <c r="N32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O32" s="7"/>
+      <c r="O32" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -2411,7 +2459,9 @@
       <c r="N33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O33" s="7"/>
+      <c r="O33" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -2455,7 +2505,9 @@
       <c r="N34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O34" s="7"/>
+      <c r="O34" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -2499,7 +2551,9 @@
       <c r="N35" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O35" s="7"/>
+      <c r="O35" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -2543,7 +2597,9 @@
       <c r="N36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O36" s="7"/>
+      <c r="O36" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -2587,7 +2643,9 @@
       <c r="N37" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O37" s="7"/>
+      <c r="O37" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
@@ -2631,7 +2689,9 @@
       <c r="N38" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O38" s="7"/>
+      <c r="O38" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
@@ -2675,7 +2735,9 @@
       <c r="N39" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O39" s="7"/>
+      <c r="O39" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -2719,7 +2781,9 @@
       <c r="N40" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="O40" s="7"/>
+      <c r="O40" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
@@ -2763,7 +2827,9 @@
       <c r="N41" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="O41" s="7"/>
+      <c r="O41" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
@@ -2807,7 +2873,9 @@
       <c r="N42" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="O42" s="10"/>
+      <c r="O42" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
@@ -2815,36 +2883,36 @@
       <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="21" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
     </row>
     <row r="44" spans="1:20" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C45" s="11" t="s">
@@ -2860,22 +2928,25 @@
         <v>88</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
